--- a/foodlist.xlsx
+++ b/foodlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\course\Documents\molecularAnthropology_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD71D5B-3BE5-47DE-A16B-523510E13EFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5970985A-3E52-47F6-AD25-4EFFD9D9917C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{84925340-059A-4558-A9F6-C9482EE15C64}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>chicory</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>Orangutan</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>foliage</t>
   </si>
 </sst>
 </file>
@@ -512,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B2906A-937C-43A8-957C-351A97183482}">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -623,8 +635,11 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -722,16 +737,19 @@
         <v>5.43</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="AJ2">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -829,16 +847,19 @@
         <v>1.71</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="AJ3">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -936,16 +957,19 @@
         <v>3.71</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="AJ4">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1043,16 +1067,19 @@
         <v>1.71</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="AJ5">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1150,13 +1177,16 @@
         <v>2</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="AJ6">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1166,42 +1196,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E489F6-26DB-4645-B2BD-C1FD818B7748}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
